--- a/teaching/traditional_assets/database/data/italy/italy_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.099955</v>
+        <v>-0.0122</v>
       </c>
       <c r="E2">
-        <v>-0.0338</v>
+        <v>0.0707</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>-53.11</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.3068168688619295</v>
+        <v>-0.01871657754010695</v>
       </c>
       <c r="M2">
-        <v>12.9291</v>
+        <v>17.4726</v>
       </c>
       <c r="N2">
-        <v>0.03191582325351765</v>
+        <v>0.04373617021276596</v>
       </c>
       <c r="O2">
-        <v>-0.2434400301261533</v>
+        <v>-4.160142857142858</v>
       </c>
       <c r="P2">
-        <v>12.9291</v>
+        <v>17.4726</v>
       </c>
       <c r="Q2">
-        <v>0.03191582325351765</v>
+        <v>0.04373617021276596</v>
       </c>
       <c r="R2">
-        <v>-0.2434400301261533</v>
+        <v>-4.160142857142858</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>44.47</v>
+        <v>63.9</v>
       </c>
       <c r="V2">
-        <v>0.1097753641076277</v>
+        <v>0.1599499374217772</v>
       </c>
       <c r="W2">
-        <v>0.01931232091690544</v>
+        <v>0.05583195135433941</v>
       </c>
       <c r="X2">
-        <v>0.08326918440378218</v>
+        <v>0.1107539613619843</v>
       </c>
       <c r="Y2">
-        <v>-0.06395686348687674</v>
+        <v>-0.05492201000764491</v>
       </c>
       <c r="Z2">
-        <v>0.09849609941790001</v>
+        <v>0.1394395078605605</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06254953952037806</v>
+        <v>0.0493736782541972</v>
       </c>
       <c r="AC2">
-        <v>-0.06254953952037806</v>
+        <v>-0.0493736782541972</v>
       </c>
       <c r="AD2">
-        <v>1255.8</v>
+        <v>1662.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1255.8</v>
+        <v>1662.5</v>
       </c>
       <c r="AG2">
-        <v>1211.33</v>
+        <v>1598.6</v>
       </c>
       <c r="AH2">
-        <v>0.7560960924799807</v>
+        <v>0.8062560620756547</v>
       </c>
       <c r="AI2">
-        <v>0.7785975571951144</v>
+        <v>0.8015524805939926</v>
       </c>
       <c r="AJ2">
-        <v>0.7493859925886058</v>
+        <v>0.8000600570542015</v>
       </c>
       <c r="AK2">
-        <v>0.7723200907914284</v>
+        <v>0.7952442543030545</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -725,28 +725,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.220000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="L3">
-        <v>0.1367720465890183</v>
+        <v>0.1712643678160919</v>
       </c>
       <c r="M3">
-        <v>10.92</v>
+        <v>10.2357</v>
       </c>
       <c r="N3">
-        <v>0.07515485203028217</v>
+        <v>0.07493191800878478</v>
       </c>
       <c r="O3">
-        <v>1.328467153284671</v>
+        <v>0.6869597315436241</v>
       </c>
       <c r="P3">
-        <v>10.92</v>
+        <v>10.2357</v>
       </c>
       <c r="Q3">
-        <v>0.07515485203028217</v>
+        <v>0.07493191800878478</v>
       </c>
       <c r="R3">
-        <v>1.328467153284671</v>
+        <v>0.6869597315436241</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,49 +761,49 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.09082872928176797</v>
+        <v>0.1808252427184466</v>
       </c>
       <c r="X3">
-        <v>0.08326918440378218</v>
+        <v>0.07187194681592372</v>
       </c>
       <c r="Y3">
-        <v>0.007559544877985783</v>
+        <v>0.1089532959025229</v>
       </c>
       <c r="Z3">
-        <v>0.1998669770535418</v>
+        <v>0.3361669242658423</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05619200133551797</v>
+        <v>0.04594278262315273</v>
       </c>
       <c r="AC3">
-        <v>-0.05619200133551797</v>
+        <v>-0.04594278262315273</v>
       </c>
       <c r="AD3">
-        <v>189.4</v>
+        <v>213.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>189.4</v>
+        <v>213.8</v>
       </c>
       <c r="AG3">
-        <v>189.4</v>
+        <v>213.8</v>
       </c>
       <c r="AH3">
-        <v>0.5658798924409919</v>
+        <v>0.6101598173515983</v>
       </c>
       <c r="AI3">
-        <v>0.6968359087564385</v>
+        <v>0.6910148674854558</v>
       </c>
       <c r="AJ3">
-        <v>0.5658798924409919</v>
+        <v>0.6101598173515983</v>
       </c>
       <c r="AK3">
-        <v>0.6968359087564385</v>
+        <v>0.6910148674854558</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.006909999999999999</v>
+        <v>0.0414</v>
       </c>
       <c r="E4">
-        <v>-0.0338</v>
+        <v>0.0707</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.37</v>
+        <v>10.1</v>
       </c>
       <c r="L4">
-        <v>0.05232919254658385</v>
+        <v>0.1276864728192162</v>
       </c>
       <c r="M4">
-        <v>2.0091</v>
+        <v>7.236899999999999</v>
       </c>
       <c r="N4">
-        <v>0.01193761140819964</v>
+        <v>0.04242028135990621</v>
       </c>
       <c r="O4">
-        <v>0.5961721068249258</v>
+        <v>0.7165247524752475</v>
       </c>
       <c r="P4">
-        <v>2.0091</v>
+        <v>7.236899999999999</v>
       </c>
       <c r="Q4">
-        <v>0.01193761140819964</v>
+        <v>0.04242028135990621</v>
       </c>
       <c r="R4">
-        <v>0.5961721068249258</v>
+        <v>0.7165247524752475</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -877,55 +877,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>42.8</v>
+        <v>62.5</v>
       </c>
       <c r="V4">
-        <v>0.2543077837195484</v>
+        <v>0.3663540445486518</v>
       </c>
       <c r="W4">
-        <v>0.01931232091690544</v>
+        <v>0.05583195135433941</v>
       </c>
       <c r="X4">
-        <v>0.1958509937621281</v>
+        <v>0.1828852038932544</v>
       </c>
       <c r="Y4">
-        <v>-0.1765386728452226</v>
+        <v>-0.127053252538915</v>
       </c>
       <c r="Z4">
-        <v>0.0514007502593982</v>
+        <v>0.0693555458132398</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06254953952037806</v>
+        <v>0.0493736782541972</v>
       </c>
       <c r="AC4">
-        <v>-0.06254953952037806</v>
+        <v>-0.0493736782541972</v>
       </c>
       <c r="AD4">
-        <v>994</v>
+        <v>1139</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>994</v>
+        <v>1139</v>
       </c>
       <c r="AG4">
-        <v>951.2</v>
+        <v>1076.5</v>
       </c>
       <c r="AH4">
-        <v>0.8552008947775962</v>
+        <v>0.8697312156383629</v>
       </c>
       <c r="AI4">
-        <v>0.8298547336784105</v>
+        <v>0.8363315955650193</v>
       </c>
       <c r="AJ4">
-        <v>0.8496650290308174</v>
+        <v>0.8632026301018363</v>
       </c>
       <c r="AK4">
-        <v>0.8235497835497836</v>
+        <v>0.8284592889025704</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.193</v>
+        <v>-0.0658</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-64.7</v>
+        <v>-29.2</v>
       </c>
       <c r="L5">
-        <v>-1.331275720164609</v>
+        <v>-0.5008576329331046</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -993,55 +993,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="V5">
-        <v>0.01825136612021858</v>
+        <v>0.01516793066088841</v>
       </c>
       <c r="W5">
-        <v>-0.4813988095238095</v>
+        <v>-0.4634920634920635</v>
       </c>
       <c r="X5">
-        <v>0.07073925339083474</v>
+        <v>0.1107539613619843</v>
       </c>
       <c r="Y5">
-        <v>-0.5521380629146443</v>
+        <v>-0.5742460248540477</v>
       </c>
       <c r="Z5">
-        <v>0.2384339891085709</v>
+        <v>0.2776190476190476</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.07141962390964546</v>
+        <v>0.0519250539411089</v>
       </c>
       <c r="AC5">
-        <v>-0.07141962390964546</v>
+        <v>-0.0519250539411089</v>
       </c>
       <c r="AD5">
-        <v>72.40000000000001</v>
+        <v>309.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>72.40000000000001</v>
+        <v>309.7</v>
       </c>
       <c r="AG5">
-        <v>70.73</v>
+        <v>308.3</v>
       </c>
       <c r="AH5">
-        <v>0.4417327638804149</v>
+        <v>0.7703980099502488</v>
       </c>
       <c r="AI5">
-        <v>0.5052337752965806</v>
+        <v>0.768867924528302</v>
       </c>
       <c r="AJ5">
-        <v>0.4359859458793071</v>
+        <v>0.7695956065901148</v>
       </c>
       <c r="AK5">
-        <v>0.4993998446656782</v>
+        <v>0.7680617837568511</v>
       </c>
       <c r="AL5">
         <v>0</v>
